--- a/Indicators/Indicators_Process_O_6_2/files/record.xlsx
+++ b/Indicators/Indicators_Process_O_6_2/files/record.xlsx
@@ -719,6 +719,15 @@
       <c r="A15" s="1">
         <v>2020</v>
       </c>
+      <c r="B15">
+        <v>11.17</v>
+      </c>
+      <c r="C15">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="D15">
+        <v>74.39</v>
+      </c>
       <c r="E15">
         <v>5.88</v>
       </c>
@@ -770,19 +779,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09786773027816573</v>
+        <v>-0.1473369540292618</v>
       </c>
       <c r="D2">
-        <v>0.2545469425084649</v>
+        <v>-0.3823304918682511</v>
       </c>
       <c r="E2">
-        <v>0.6372097323930248</v>
+        <v>0.6517231191496464</v>
       </c>
       <c r="F2">
-        <v>0.579035395657317</v>
+        <v>0.03552180850833236</v>
       </c>
       <c r="G2">
-        <v>0.2247867038719134</v>
+        <v>-0.1902065474190847</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -790,22 +799,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09786773027816573</v>
+        <v>-0.1473369540292618</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3764995358353767</v>
+        <v>0.4280051685866169</v>
       </c>
       <c r="E3">
-        <v>-0.4783381247665044</v>
+        <v>-0.5161134858120739</v>
       </c>
       <c r="F3">
-        <v>0.7514765666286033</v>
+        <v>0.7652582039815681</v>
       </c>
       <c r="G3">
-        <v>0.4747704801479508</v>
+        <v>0.5101709291418489</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -813,22 +822,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2545469425084649</v>
+        <v>-0.3823304918682511</v>
       </c>
       <c r="C4">
-        <v>0.3764995358353767</v>
+        <v>0.4280051685866169</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.1923679396178153</v>
+        <v>-0.3809801284520444</v>
       </c>
       <c r="F4">
-        <v>0.3520013034131039</v>
+        <v>0.43009380384447</v>
       </c>
       <c r="G4">
-        <v>0.8037517030134953</v>
+        <v>0.8158096715484823</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -836,13 +845,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6372097323930248</v>
+        <v>0.6517231191496464</v>
       </c>
       <c r="C5">
-        <v>-0.4783381247665044</v>
+        <v>-0.5161134858120739</v>
       </c>
       <c r="D5">
-        <v>-0.1923679396178153</v>
+        <v>-0.3809801284520444</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -859,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.579035395657317</v>
+        <v>0.03552180850833236</v>
       </c>
       <c r="C6">
-        <v>0.7514765666286033</v>
+        <v>0.7652582039815681</v>
       </c>
       <c r="D6">
-        <v>0.3520013034131039</v>
+        <v>0.43009380384447</v>
       </c>
       <c r="E6">
         <v>-0.1159679255575988</v>
@@ -882,13 +891,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2247867038719134</v>
+        <v>-0.1902065474190847</v>
       </c>
       <c r="C7">
-        <v>0.4747704801479508</v>
+        <v>0.5101709291418489</v>
       </c>
       <c r="D7">
-        <v>0.8037517030134953</v>
+        <v>0.8158096715484823</v>
       </c>
       <c r="E7">
         <v>-0.3411223614504544</v>
